--- a/App_Data/Template/ImportPolicy_Example.xlsx
+++ b/App_Data/Template/ImportPolicy_Example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Agent ID.</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>001-MR-2018-0002148</t>
+  </si>
+  <si>
+    <t>Insurer Code</t>
+  </si>
+  <si>
+    <t>SGI</t>
   </si>
 </sst>
 </file>
@@ -441,518 +447,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>42800</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>42890</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>2396</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>42915</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>43005</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>2983</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>42943</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>43033</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>76199</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>43028</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>43118</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>4157</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>43026</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>43116</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>91717</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>43047</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>43137</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>2845</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>43049</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>43139</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>500</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>43055</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>43145</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>316413</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>43063</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>43153</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>26914</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>43063</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>43153</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>89347</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>43063</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>43153</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>105214</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>43083</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>43173</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>1320</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>43097</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>43187</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>14500</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>43097</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>43187</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>173725</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>43103</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>43193</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>91911</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>43097</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>43187</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>57701</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>43115</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>43205</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>58507</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>43115</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>43205</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>159609</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
